--- a/Code/Results/Cases/Case_3_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.07186245683761</v>
+        <v>17.81455945005328</v>
       </c>
       <c r="C2">
-        <v>12.6802004721315</v>
+        <v>10.46921337672148</v>
       </c>
       <c r="D2">
-        <v>5.138123734372396</v>
+        <v>8.660633352591748</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.5735090807163</v>
+        <v>36.37972241081521</v>
       </c>
       <c r="G2">
-        <v>2.104280692625766</v>
+        <v>3.679568183624746</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.457990891536222</v>
+        <v>10.76046124817535</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.00404039751839</v>
+        <v>11.49398786328987</v>
       </c>
       <c r="M2">
-        <v>13.03553617170351</v>
+        <v>17.00166471999923</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.51244240650523</v>
+        <v>27.73487892589981</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.65227536841578</v>
+        <v>17.36159986530425</v>
       </c>
       <c r="C3">
-        <v>12.18818936930725</v>
+        <v>10.26873412964327</v>
       </c>
       <c r="D3">
-        <v>5.091332847209416</v>
+        <v>8.665931797615139</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.49974858145638</v>
+        <v>36.51261448610473</v>
       </c>
       <c r="G3">
-        <v>2.11022260612557</v>
+        <v>3.681819848806667</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.530034266894345</v>
+        <v>10.78562023241519</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.89667053507211</v>
+        <v>11.49438908246359</v>
       </c>
       <c r="M3">
-        <v>12.44379098594767</v>
+        <v>16.89921508041572</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.54601086326375</v>
+        <v>27.84915246853567</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7657363015494</v>
+        <v>17.07930389074161</v>
       </c>
       <c r="C4">
-        <v>11.87633974491489</v>
+        <v>10.14314948307899</v>
       </c>
       <c r="D4">
-        <v>5.063885555792963</v>
+        <v>8.669954534369289</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.47944184592023</v>
+        <v>36.60324849658839</v>
       </c>
       <c r="G4">
-        <v>2.113982199474466</v>
+        <v>3.683275959311089</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.575512452318963</v>
+        <v>10.80186041778952</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.832149891245072</v>
+        <v>11.495792197518</v>
       </c>
       <c r="M4">
-        <v>12.06944161063125</v>
+        <v>16.83788706638478</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.58540538758793</v>
+        <v>27.92593984151888</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39291432857611</v>
+        <v>16.96337661184304</v>
       </c>
       <c r="C5">
-        <v>11.74692851519937</v>
+        <v>10.09139494202268</v>
       </c>
       <c r="D5">
-        <v>5.053025958654963</v>
+        <v>8.671787822066563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.47721436252379</v>
+        <v>36.64244875748039</v>
       </c>
       <c r="G5">
-        <v>2.115542969251247</v>
+        <v>3.683887897508859</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.594365686869295</v>
+        <v>10.80867831550731</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.806229766068236</v>
+        <v>11.49665585679657</v>
       </c>
       <c r="M5">
-        <v>11.91430495594722</v>
+        <v>16.81330940474305</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.60597170411067</v>
+        <v>27.95889252475712</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.33031161846423</v>
+        <v>16.94407812759291</v>
       </c>
       <c r="C6">
-        <v>11.72530306612283</v>
+        <v>10.08276769151529</v>
       </c>
       <c r="D6">
-        <v>5.051242461706916</v>
+        <v>8.672103968878167</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.47720275081074</v>
+        <v>36.6490946090091</v>
       </c>
       <c r="G6">
-        <v>2.115803888417486</v>
+        <v>3.683990632184861</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.597515833756903</v>
+        <v>10.80982251329391</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.80194880746659</v>
+        <v>11.49681692359931</v>
       </c>
       <c r="M6">
-        <v>11.88839435549465</v>
+        <v>16.80925381001066</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.60965314748488</v>
+        <v>27.96446450170106</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76075498837724</v>
+        <v>17.0777438371181</v>
       </c>
       <c r="C7">
-        <v>11.87460371955931</v>
+        <v>10.14245377746419</v>
       </c>
       <c r="D7">
-        <v>5.063737778371554</v>
+        <v>8.66997847261397</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.47938763393015</v>
+        <v>36.60376799811591</v>
       </c>
       <c r="G7">
-        <v>2.11400313138885</v>
+        <v>3.683284136890722</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.575765405739093</v>
+        <v>10.80195155617526</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.831798789646035</v>
+        <v>11.49580266204337</v>
       </c>
       <c r="M7">
-        <v>12.06735959151621</v>
+        <v>16.83755390437219</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.58566475768142</v>
+        <v>27.92637753238851</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5900275403698</v>
+        <v>17.65933980760163</v>
       </c>
       <c r="C8">
-        <v>12.51264747877057</v>
+        <v>10.40063316897265</v>
       </c>
       <c r="D8">
-        <v>5.121725882936842</v>
+        <v>8.662300857423956</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.54275299126338</v>
+        <v>36.42366400629503</v>
       </c>
       <c r="G8">
-        <v>2.106306831124624</v>
+        <v>3.68032932222629</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.482578265610384</v>
+        <v>10.76897196224926</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.966739324394163</v>
+        <v>11.49388673235529</v>
       </c>
       <c r="M8">
-        <v>12.8338902218192</v>
+        <v>16.96602359850663</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.51999154666246</v>
+        <v>27.77290335066007</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87092744787008</v>
+        <v>18.7600856272816</v>
       </c>
       <c r="C9">
-        <v>13.68194011548371</v>
+        <v>10.88515509783542</v>
       </c>
       <c r="D9">
-        <v>5.245480794835726</v>
+        <v>8.653328376917081</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.87522664312339</v>
+        <v>36.14247045419422</v>
       </c>
       <c r="G9">
-        <v>2.092061827516293</v>
+        <v>3.675116049074276</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.309326892108127</v>
+        <v>10.71055861702508</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.241658136457005</v>
+        <v>11.4992628784925</v>
       </c>
       <c r="M9">
-        <v>14.24298061069166</v>
+        <v>17.22966605954552</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.54964403281768</v>
+        <v>27.52467585998161</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03859298028054</v>
+        <v>19.53637413377304</v>
       </c>
       <c r="C10">
-        <v>14.4861524300553</v>
+        <v>11.22532703726878</v>
       </c>
       <c r="D10">
-        <v>5.34234093943532</v>
+        <v>8.650414948775413</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.2592823569806</v>
+        <v>35.98013305643525</v>
       </c>
       <c r="G10">
-        <v>2.082060470931808</v>
+        <v>3.671636327882476</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.187267587721398</v>
+        <v>10.67141845895297</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.448817515522761</v>
+        <v>11.50871827609574</v>
       </c>
       <c r="M10">
-        <v>15.21374822340567</v>
+        <v>17.42941228660615</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.68075250041971</v>
+        <v>27.3747003912483</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.97323036665479</v>
+        <v>19.88095401226867</v>
       </c>
       <c r="C11">
-        <v>14.83934521031708</v>
+        <v>11.37615836726584</v>
       </c>
       <c r="D11">
-        <v>5.387655640286392</v>
+        <v>8.6498816099044</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.46685238684011</v>
+        <v>35.9159648321387</v>
       </c>
       <c r="G11">
-        <v>2.077599052012972</v>
+        <v>3.670128607638212</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.132744087468142</v>
+        <v>10.65442405101675</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.543964108635014</v>
+        <v>11.51420077741347</v>
       </c>
       <c r="M11">
-        <v>15.64031760316952</v>
+        <v>17.52135501759934</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.76679939646215</v>
+        <v>27.31355922485147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.31985918289657</v>
+        <v>20.01009280955014</v>
       </c>
       <c r="C12">
-        <v>14.97122559974333</v>
+        <v>11.43267372973336</v>
       </c>
       <c r="D12">
-        <v>5.404992016753917</v>
+        <v>8.649792920844</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.55036606121835</v>
+        <v>35.89306355286539</v>
       </c>
       <c r="G12">
-        <v>2.075921220282364</v>
+        <v>3.669568428914424</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.112230064547564</v>
+        <v>10.648104642357</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.580107257414436</v>
+        <v>11.51644534936424</v>
       </c>
       <c r="M12">
-        <v>15.79962347621162</v>
+        <v>17.55630552027512</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.8033921501653</v>
+        <v>27.2914294274782</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.24552942280743</v>
+        <v>19.98234206161719</v>
       </c>
       <c r="C13">
-        <v>14.94290642069726</v>
+        <v>11.42052945577547</v>
       </c>
       <c r="D13">
-        <v>5.401250510823066</v>
+        <v>8.649806993701665</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.53215862871082</v>
+        <v>35.89793349396724</v>
       </c>
       <c r="G13">
-        <v>2.076282073006359</v>
+        <v>3.669688595639235</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.116642404917737</v>
+        <v>10.64946048968557</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.572318411254995</v>
+        <v>11.51595447077763</v>
       </c>
       <c r="M13">
-        <v>15.76541397994271</v>
+        <v>17.54877269179027</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.79532965244684</v>
+        <v>27.29614990586295</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.00189340846143</v>
+        <v>19.89160594342006</v>
       </c>
       <c r="C14">
-        <v>14.85023271725921</v>
+        <v>11.38082017909997</v>
       </c>
       <c r="D14">
-        <v>5.389078391867824</v>
+        <v>8.6498720467987</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.47362365310911</v>
+        <v>35.91405268292937</v>
       </c>
       <c r="G14">
-        <v>2.077460789552542</v>
+        <v>3.670082306018687</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.131053791029408</v>
+        <v>10.65390182777485</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.546935453326172</v>
+        <v>11.51438207153443</v>
       </c>
       <c r="M14">
-        <v>15.65346872649874</v>
+        <v>17.52422785669682</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.76972837337989</v>
+        <v>27.31171806486475</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.85171190933454</v>
+        <v>19.83584888780355</v>
       </c>
       <c r="C15">
-        <v>14.79322317859135</v>
+        <v>11.35641771531258</v>
       </c>
       <c r="D15">
-        <v>5.38164553070584</v>
+        <v>8.649926626836873</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.43841421238012</v>
+        <v>35.92410835976034</v>
       </c>
       <c r="G15">
-        <v>2.078184266167522</v>
+        <v>3.670324864935985</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.139898135461157</v>
+        <v>10.65663736615077</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.531401907247876</v>
+        <v>11.51344082877159</v>
       </c>
       <c r="M15">
-        <v>15.584607432172</v>
+        <v>17.50921023008933</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.75457507857592</v>
+        <v>27.32138737131684</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.97648546166153</v>
+        <v>19.51367271992818</v>
       </c>
       <c r="C16">
-        <v>14.46281163179195</v>
+        <v>11.21538775385555</v>
       </c>
       <c r="D16">
-        <v>5.339404420988512</v>
+        <v>8.650465688796768</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.24639460111773</v>
+        <v>35.98452189485232</v>
       </c>
       <c r="G16">
-        <v>2.082353720446093</v>
+        <v>3.671736369929658</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.190850044149856</v>
+        <v>10.67254534733748</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.442616221027327</v>
+        <v>11.50838363338154</v>
       </c>
       <c r="M16">
-        <v>15.18556241922702</v>
+        <v>17.42342348773542</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.67567869367434</v>
+        <v>27.37883902952657</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.42645590548804</v>
+        <v>19.31375084720966</v>
       </c>
       <c r="C17">
-        <v>14.2568380299848</v>
+        <v>11.12783978323948</v>
       </c>
       <c r="D17">
-        <v>5.313809137875955</v>
+        <v>8.650998805688578</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.13714961692831</v>
+        <v>36.02406717813852</v>
       </c>
       <c r="G17">
-        <v>2.08493340444732</v>
+        <v>3.672621509746807</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.222356237183351</v>
+        <v>10.6825116009092</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.388368945082916</v>
+        <v>11.50558277458233</v>
       </c>
       <c r="M17">
-        <v>14.93685836306786</v>
+        <v>17.37105702715975</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.63419365922611</v>
+        <v>27.4159011944555</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10524507905516</v>
+        <v>19.19796184840418</v>
       </c>
       <c r="C18">
-        <v>14.13717906817297</v>
+        <v>11.07711817431826</v>
       </c>
       <c r="D18">
-        <v>5.299205493565506</v>
+        <v>8.651380024808224</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.07739752571495</v>
+        <v>36.04772336312318</v>
       </c>
       <c r="G18">
-        <v>2.086425545863118</v>
+        <v>3.673137702286416</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.240572782797257</v>
+        <v>10.68832026171166</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.357253847442473</v>
+        <v>11.50408306140325</v>
       </c>
       <c r="M18">
-        <v>14.79239761914254</v>
+        <v>17.34103988901303</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.61280560343761</v>
+        <v>27.43788483752441</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.99565292550207</v>
+        <v>19.15862410073121</v>
       </c>
       <c r="C19">
-        <v>14.09646213085547</v>
+        <v>11.05988299893252</v>
       </c>
       <c r="D19">
-        <v>5.29428134131622</v>
+        <v>8.65152192728589</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.05769008540508</v>
+        <v>36.05588918437203</v>
       </c>
       <c r="G19">
-        <v>2.086932229420305</v>
+        <v>3.673313694486081</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.246757241624377</v>
+        <v>10.69030010242304</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.346734222644826</v>
+        <v>11.50359443560453</v>
       </c>
       <c r="M19">
-        <v>14.74324529947683</v>
+        <v>17.33089487491461</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.60598217931801</v>
+        <v>27.44544245031748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.48550856927723</v>
+        <v>19.33511645749137</v>
       </c>
       <c r="C20">
-        <v>14.27888764650708</v>
+        <v>11.13719761342334</v>
       </c>
       <c r="D20">
-        <v>5.316521603914874</v>
+        <v>8.650934339656727</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.14845849403901</v>
+        <v>36.01976320881221</v>
       </c>
       <c r="G20">
-        <v>2.084657933429072</v>
+        <v>3.672526552380747</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.218992594291208</v>
+        <v>10.68144277988581</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.39413483899153</v>
+        <v>11.5058694249277</v>
       </c>
       <c r="M20">
-        <v>14.963480069537</v>
+        <v>17.37662105321889</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.63835231027547</v>
+        <v>27.41188685440444</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.07365246695361</v>
+        <v>19.9182947454342</v>
       </c>
       <c r="C21">
-        <v>14.87750419364314</v>
+        <v>11.39250036479263</v>
       </c>
       <c r="D21">
-        <v>5.392648868798227</v>
+        <v>8.649849869881928</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.49068207828635</v>
+        <v>35.90928010435729</v>
       </c>
       <c r="G21">
-        <v>2.077114265810505</v>
+        <v>3.669966372087084</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.126817305423985</v>
+        <v>10.65259415526235</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.554388103008479</v>
+        <v>11.51483936252448</v>
       </c>
       <c r="M21">
-        <v>15.68641061980977</v>
+        <v>17.53143380784587</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.7771376381295</v>
+        <v>27.30711751939659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.06910653802843</v>
+        <v>20.29154263084394</v>
       </c>
       <c r="C22">
-        <v>15.25784410300646</v>
+        <v>11.55583531308604</v>
       </c>
       <c r="D22">
-        <v>5.443430960643247</v>
+        <v>8.649801057716529</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.7430503004152</v>
+        <v>35.84522314689074</v>
       </c>
       <c r="G22">
-        <v>2.07225116041961</v>
+        <v>3.668355851585448</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.067343983242599</v>
+        <v>10.6344158171682</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.659775702640123</v>
+        <v>11.52168300357834</v>
       </c>
       <c r="M22">
-        <v>16.14589066842079</v>
+        <v>17.6333828114987</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.89130130914545</v>
+        <v>27.24460972031119</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.54166787367178</v>
+        <v>20.09309100442464</v>
       </c>
       <c r="C23">
-        <v>15.05585867058345</v>
+        <v>11.46899446303334</v>
       </c>
       <c r="D23">
-        <v>5.416234530706468</v>
+        <v>8.649766932540071</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.60567174488859</v>
+        <v>35.87866395700141</v>
       </c>
       <c r="G23">
-        <v>2.074840927615316</v>
+        <v>3.669209697105037</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.099019597644493</v>
+        <v>10.64405627843047</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.603473995019379</v>
+        <v>11.51794111274294</v>
       </c>
       <c r="M23">
-        <v>15.90186358957575</v>
+        <v>17.57890727305596</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.828155095351</v>
+        <v>27.27742406884251</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.45882641490014</v>
+        <v>19.32545970765373</v>
       </c>
       <c r="C24">
-        <v>14.26892287968641</v>
+        <v>11.13296814750141</v>
       </c>
       <c r="D24">
-        <v>5.315294950689157</v>
+        <v>8.650963251962821</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.14333625144959</v>
+        <v>36.02170616466123</v>
       </c>
       <c r="G24">
-        <v>2.084782445617627</v>
+        <v>3.672569459818805</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.220512974909216</v>
+        <v>10.6819257479646</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.391527851549997</v>
+        <v>11.50573948589166</v>
       </c>
       <c r="M24">
-        <v>14.95144899296058</v>
+        <v>17.37410527808136</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.63646453090846</v>
+        <v>27.41369963179226</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02640430923074</v>
+        <v>18.46744572521197</v>
       </c>
       <c r="C25">
-        <v>13.37495079484415</v>
+        <v>10.75668039812425</v>
       </c>
       <c r="D25">
-        <v>5.210945481068297</v>
+        <v>8.655107412985956</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.76162083617434</v>
+        <v>36.21079464135124</v>
       </c>
       <c r="G25">
-        <v>2.095829946091845</v>
+        <v>3.676464559057673</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.355235689047574</v>
+        <v>10.72569498501179</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.166298297882126</v>
+        <v>11.49683688706679</v>
       </c>
       <c r="M25">
-        <v>13.8726829121719</v>
+        <v>17.15720093650239</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.52333691538689</v>
+        <v>27.58615635312848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.81455945005328</v>
+        <v>21.07186245683759</v>
       </c>
       <c r="C2">
-        <v>10.46921337672148</v>
+        <v>12.68020047213161</v>
       </c>
       <c r="D2">
-        <v>8.660633352591748</v>
+        <v>5.138123734372348</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.37972241081521</v>
+        <v>23.57350908071617</v>
       </c>
       <c r="G2">
-        <v>3.679568183624746</v>
+        <v>2.104280692625498</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.76046124817535</v>
+        <v>6.457990891536287</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.49398786328987</v>
+        <v>7.004040397518348</v>
       </c>
       <c r="M2">
-        <v>17.00166471999923</v>
+        <v>13.03553617170352</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.73487892589981</v>
+        <v>17.51244240650517</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.36159986530425</v>
+        <v>19.65227536841579</v>
       </c>
       <c r="C3">
-        <v>10.26873412964327</v>
+        <v>12.18818936930736</v>
       </c>
       <c r="D3">
-        <v>8.665931797615139</v>
+        <v>5.091332847209538</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.51261448610473</v>
+        <v>23.49974858145634</v>
       </c>
       <c r="G3">
-        <v>3.681819848806667</v>
+        <v>2.110222606125704</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.78562023241519</v>
+        <v>6.530034266894311</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.49438908246359</v>
+        <v>6.896670535072113</v>
       </c>
       <c r="M3">
-        <v>16.89921508041572</v>
+        <v>12.44379098594767</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.84915246853567</v>
+        <v>17.54601086326368</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.07930389074161</v>
+        <v>18.76573630154939</v>
       </c>
       <c r="C4">
-        <v>10.14314948307899</v>
+        <v>11.87633974491486</v>
       </c>
       <c r="D4">
-        <v>8.669954534369289</v>
+        <v>5.063885555793086</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.60324849658839</v>
+        <v>23.47944184592024</v>
       </c>
       <c r="G4">
-        <v>3.683275959311089</v>
+        <v>2.113982199474466</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.80186041778952</v>
+        <v>6.575512452318995</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.495792197518</v>
+        <v>6.832149891245123</v>
       </c>
       <c r="M4">
-        <v>16.83788706638478</v>
+        <v>12.06944161063127</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.92593984151888</v>
+        <v>17.58540538758791</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.96337661184304</v>
+        <v>18.3929143285761</v>
       </c>
       <c r="C5">
-        <v>10.09139494202268</v>
+        <v>11.74692851519917</v>
       </c>
       <c r="D5">
-        <v>8.671787822066563</v>
+        <v>5.053025958655141</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.64244875748039</v>
+        <v>23.47721436252392</v>
       </c>
       <c r="G5">
-        <v>3.683887897508859</v>
+        <v>2.115542969251114</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.80867831550731</v>
+        <v>6.594365686869192</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.49665585679657</v>
+        <v>6.806229766068295</v>
       </c>
       <c r="M5">
-        <v>16.81330940474305</v>
+        <v>11.91430495594721</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.95889252475712</v>
+        <v>17.60597170411069</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.94407812759291</v>
+        <v>18.33031161846424</v>
       </c>
       <c r="C6">
-        <v>10.08276769151529</v>
+        <v>11.72530306612283</v>
       </c>
       <c r="D6">
-        <v>8.672103968878167</v>
+        <v>5.051242461706916</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.6490946090091</v>
+        <v>23.47720275081073</v>
       </c>
       <c r="G6">
-        <v>3.683990632184861</v>
+        <v>2.115803888417487</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.80982251329391</v>
+        <v>6.597515833756903</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.49681692359931</v>
+        <v>6.801948807466592</v>
       </c>
       <c r="M6">
-        <v>16.80925381001066</v>
+        <v>11.88839435549466</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.96446450170106</v>
+        <v>17.60965314748487</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.0777438371181</v>
+        <v>18.76075498837721</v>
       </c>
       <c r="C7">
-        <v>10.14245377746419</v>
+        <v>11.87460371955942</v>
       </c>
       <c r="D7">
-        <v>8.66997847261397</v>
+        <v>5.063737778371383</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.60376799811591</v>
+        <v>23.47938763393001</v>
       </c>
       <c r="G7">
-        <v>3.683284136890722</v>
+        <v>2.114003131388851</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.80195155617526</v>
+        <v>6.575765405739093</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.49580266204337</v>
+        <v>6.831798789645956</v>
       </c>
       <c r="M7">
-        <v>16.83755390437219</v>
+        <v>12.06735959151614</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.92637753238851</v>
+        <v>17.58566475768133</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.65933980760163</v>
+        <v>20.59002754036981</v>
       </c>
       <c r="C8">
-        <v>10.40063316897265</v>
+        <v>12.51264747877069</v>
       </c>
       <c r="D8">
-        <v>8.662300857423956</v>
+        <v>5.12172588293679</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.42366400629503</v>
+        <v>23.54275299126326</v>
       </c>
       <c r="G8">
-        <v>3.68032932222629</v>
+        <v>2.106306831124491</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.76897196224926</v>
+        <v>6.482578265610418</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.49388673235529</v>
+        <v>6.966739324394136</v>
       </c>
       <c r="M8">
-        <v>16.96602359850663</v>
+        <v>12.83389022181919</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.77290335066007</v>
+        <v>17.5199915466624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.7600856272816</v>
+        <v>23.87092744787008</v>
       </c>
       <c r="C9">
-        <v>10.88515509783542</v>
+        <v>13.68194011548369</v>
       </c>
       <c r="D9">
-        <v>8.653328376917081</v>
+        <v>5.245480794835665</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.14247045419422</v>
+        <v>23.8752266431235</v>
       </c>
       <c r="G9">
-        <v>3.675116049074276</v>
+        <v>2.092061827516295</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.71055861702508</v>
+        <v>6.309326892108162</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.4992628784925</v>
+        <v>7.241658136456991</v>
       </c>
       <c r="M9">
-        <v>17.22966605954552</v>
+        <v>14.24298061069166</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.52467585998161</v>
+        <v>17.54964403281781</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.53637413377304</v>
+        <v>26.03859298028052</v>
       </c>
       <c r="C10">
-        <v>11.22532703726878</v>
+        <v>14.48615243005549</v>
       </c>
       <c r="D10">
-        <v>8.650414948775413</v>
+        <v>5.342340939435164</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.98013305643525</v>
+        <v>24.2592823569806</v>
       </c>
       <c r="G10">
-        <v>3.671636327882476</v>
+        <v>2.082060470931674</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.67141845895297</v>
+        <v>6.187267587721497</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.50871827609574</v>
+        <v>7.44881751552273</v>
       </c>
       <c r="M10">
-        <v>17.42941228660615</v>
+        <v>15.21374822340565</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.3747003912483</v>
+        <v>17.68075250041978</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.88095401226867</v>
+        <v>26.97323036665474</v>
       </c>
       <c r="C11">
-        <v>11.37615836726584</v>
+        <v>14.83934521031706</v>
       </c>
       <c r="D11">
-        <v>8.6498816099044</v>
+        <v>5.387655640286392</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.9159648321387</v>
+        <v>24.46685238684022</v>
       </c>
       <c r="G11">
-        <v>3.670128607638212</v>
+        <v>2.077599052012704</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.65442405101675</v>
+        <v>6.132744087468207</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.51420077741347</v>
+        <v>7.543964108635036</v>
       </c>
       <c r="M11">
-        <v>17.52135501759934</v>
+        <v>15.64031760316955</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.31355922485147</v>
+        <v>17.76679939646228</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.01009280955014</v>
+        <v>27.31985918289657</v>
       </c>
       <c r="C12">
-        <v>11.43267372973336</v>
+        <v>14.97122559974335</v>
       </c>
       <c r="D12">
-        <v>8.649792920844</v>
+        <v>5.404992016753917</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.89306355286539</v>
+        <v>24.55036606121838</v>
       </c>
       <c r="G12">
-        <v>3.669568428914424</v>
+        <v>2.07592122028223</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.648104642357</v>
+        <v>6.112230064547565</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.51644534936424</v>
+        <v>7.580107257414465</v>
       </c>
       <c r="M12">
-        <v>17.55630552027512</v>
+        <v>15.79962347621161</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.2914294274782</v>
+        <v>17.8033921501653</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.98234206161719</v>
+        <v>27.24552942280746</v>
       </c>
       <c r="C13">
-        <v>11.42052945577547</v>
+        <v>14.94290642069719</v>
       </c>
       <c r="D13">
-        <v>8.649806993701665</v>
+        <v>5.401250510823064</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.89793349396724</v>
+        <v>24.53215862871074</v>
       </c>
       <c r="G13">
-        <v>3.669688595639235</v>
+        <v>2.076282073006358</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.64946048968557</v>
+        <v>6.116642404917804</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.51595447077763</v>
+        <v>7.57231841125503</v>
       </c>
       <c r="M13">
-        <v>17.54877269179027</v>
+        <v>15.76541397994272</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.29614990586295</v>
+        <v>17.79532965244676</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.89160594342006</v>
+        <v>27.00189340846146</v>
       </c>
       <c r="C14">
-        <v>11.38082017909997</v>
+        <v>14.85023271725915</v>
       </c>
       <c r="D14">
-        <v>8.6498720467987</v>
+        <v>5.389078391867865</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.91405268292937</v>
+        <v>24.4736236531091</v>
       </c>
       <c r="G14">
-        <v>3.670082306018687</v>
+        <v>2.077460789552544</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.65390182777485</v>
+        <v>6.13105379102924</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.51438207153443</v>
+        <v>7.546935453326147</v>
       </c>
       <c r="M14">
-        <v>17.52422785669682</v>
+        <v>15.65346872649873</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.31171806486475</v>
+        <v>17.76972837337986</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.83584888780355</v>
+        <v>26.85171190933453</v>
       </c>
       <c r="C15">
-        <v>11.35641771531258</v>
+        <v>14.79322317859139</v>
       </c>
       <c r="D15">
-        <v>8.649926626836873</v>
+        <v>5.381645530705741</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.92410835976034</v>
+        <v>24.43841421238011</v>
       </c>
       <c r="G15">
-        <v>3.670324864935985</v>
+        <v>2.078184266167254</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.65663736615077</v>
+        <v>6.139898135461258</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.51344082877159</v>
+        <v>7.531401907247859</v>
       </c>
       <c r="M15">
-        <v>17.50921023008933</v>
+        <v>15.58460743217199</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.32138737131684</v>
+        <v>17.75457507857594</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.51367271992818</v>
+        <v>25.97648546166152</v>
       </c>
       <c r="C16">
-        <v>11.21538775385555</v>
+        <v>14.46281163179187</v>
       </c>
       <c r="D16">
-        <v>8.650465688796768</v>
+        <v>5.339404420988511</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.98452189485232</v>
+        <v>24.24639460111774</v>
       </c>
       <c r="G16">
-        <v>3.671736369929658</v>
+        <v>2.082353720446093</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.67254534733748</v>
+        <v>6.190850044149856</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.50838363338154</v>
+        <v>7.442616221027347</v>
       </c>
       <c r="M16">
-        <v>17.42342348773542</v>
+        <v>15.18556241922703</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.37883902952657</v>
+        <v>17.67567869367435</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.31375084720966</v>
+        <v>25.42645590548802</v>
       </c>
       <c r="C17">
-        <v>11.12783978323948</v>
+        <v>14.25683802998468</v>
       </c>
       <c r="D17">
-        <v>8.650998805688578</v>
+        <v>5.313809137875912</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.02406717813852</v>
+        <v>24.13714961692838</v>
       </c>
       <c r="G17">
-        <v>3.672621509746807</v>
+        <v>2.08493340444732</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.6825116009092</v>
+        <v>6.222356237183281</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.50558277458233</v>
+        <v>7.388368945082899</v>
       </c>
       <c r="M17">
-        <v>17.37105702715975</v>
+        <v>14.93685836306785</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.4159011944555</v>
+        <v>17.63419365922618</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.19796184840418</v>
+        <v>25.10524507905525</v>
       </c>
       <c r="C18">
-        <v>11.07711817431826</v>
+        <v>14.13717906817295</v>
       </c>
       <c r="D18">
-        <v>8.651380024808224</v>
+        <v>5.29920549356539</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.04772336312318</v>
+        <v>24.07739752571468</v>
       </c>
       <c r="G18">
-        <v>3.673137702286416</v>
+        <v>2.086425545863385</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.68832026171166</v>
+        <v>6.240572782797189</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.50408306140325</v>
+        <v>7.357253847442424</v>
       </c>
       <c r="M18">
-        <v>17.34103988901303</v>
+        <v>14.7923976191425</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.43788483752441</v>
+        <v>17.61280560343742</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.15862410073121</v>
+        <v>24.99565292550207</v>
       </c>
       <c r="C19">
-        <v>11.05988299893252</v>
+        <v>14.09646213085541</v>
       </c>
       <c r="D19">
-        <v>8.65152192728589</v>
+        <v>5.294281341315966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.05588918437203</v>
+        <v>24.05769008540509</v>
       </c>
       <c r="G19">
-        <v>3.673313694486081</v>
+        <v>2.086932229420173</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.69030010242304</v>
+        <v>6.246757241624411</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.50359443560453</v>
+        <v>7.346734222644834</v>
       </c>
       <c r="M19">
-        <v>17.33089487491461</v>
+        <v>14.74324529947682</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.44544245031748</v>
+        <v>17.60598217931808</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.33511645749137</v>
+        <v>25.48550856927723</v>
       </c>
       <c r="C20">
-        <v>11.13719761342334</v>
+        <v>14.27888764650714</v>
       </c>
       <c r="D20">
-        <v>8.650934339656727</v>
+        <v>5.316521603914858</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.01976320881221</v>
+        <v>24.14845849403903</v>
       </c>
       <c r="G20">
-        <v>3.672526552380747</v>
+        <v>2.084657933429072</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.68144277988581</v>
+        <v>6.218992594291239</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.5058694249277</v>
+        <v>7.394134838991594</v>
       </c>
       <c r="M20">
-        <v>17.37662105321889</v>
+        <v>14.96348006953701</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.41188685440444</v>
+        <v>17.63835231027547</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.9182947454342</v>
+        <v>27.0736524669536</v>
       </c>
       <c r="C21">
-        <v>11.39250036479263</v>
+        <v>14.87750419364319</v>
       </c>
       <c r="D21">
-        <v>8.649849869881928</v>
+        <v>5.392648868798309</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.90928010435729</v>
+        <v>24.49068207828632</v>
       </c>
       <c r="G21">
-        <v>3.669966372087084</v>
+        <v>2.077114265810637</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.65259415526235</v>
+        <v>6.126817305424053</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.51483936252448</v>
+        <v>7.554388103008564</v>
       </c>
       <c r="M21">
-        <v>17.53143380784587</v>
+        <v>15.6864106198098</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.30711751939659</v>
+        <v>17.77713763812947</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.29154263084394</v>
+        <v>28.0691065380284</v>
       </c>
       <c r="C22">
-        <v>11.55583531308604</v>
+        <v>15.25784410300634</v>
       </c>
       <c r="D22">
-        <v>8.649801057716529</v>
+        <v>5.443430960643004</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.84522314689074</v>
+        <v>24.74305030041509</v>
       </c>
       <c r="G22">
-        <v>3.668355851585448</v>
+        <v>2.072251160419479</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.6344158171682</v>
+        <v>6.067343983242631</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.52168300357834</v>
+        <v>7.659775702640088</v>
       </c>
       <c r="M22">
-        <v>17.6333828114987</v>
+        <v>16.14589066842077</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.24460972031119</v>
+        <v>17.89130130914548</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.09309100442464</v>
+        <v>27.5416678736718</v>
       </c>
       <c r="C23">
-        <v>11.46899446303334</v>
+        <v>15.05585867058346</v>
       </c>
       <c r="D23">
-        <v>8.649766932540071</v>
+        <v>5.416234530706361</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.87866395700141</v>
+        <v>24.6056717448885</v>
       </c>
       <c r="G23">
-        <v>3.669209697105037</v>
+        <v>2.074840927615182</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.64405627843047</v>
+        <v>6.099019597644594</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.51794111274294</v>
+        <v>7.603473995019444</v>
       </c>
       <c r="M23">
-        <v>17.57890727305596</v>
+        <v>15.90186358957576</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.27742406884251</v>
+        <v>17.82815509535098</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.32545970765373</v>
+        <v>25.45882641490021</v>
       </c>
       <c r="C24">
-        <v>11.13296814750141</v>
+        <v>14.26892287968634</v>
       </c>
       <c r="D24">
-        <v>8.650963251962821</v>
+        <v>5.315294950689168</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.02170616466123</v>
+        <v>24.14333625144945</v>
       </c>
       <c r="G24">
-        <v>3.672569459818805</v>
+        <v>2.084782445617627</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.6819257479646</v>
+        <v>6.220512974909216</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.50573948589166</v>
+        <v>7.391527851549949</v>
       </c>
       <c r="M24">
-        <v>17.37410527808136</v>
+        <v>14.95144899296054</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.41369963179226</v>
+        <v>17.63646453090833</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.46744572521197</v>
+        <v>23.02640430923072</v>
       </c>
       <c r="C25">
-        <v>10.75668039812425</v>
+        <v>13.37495079484435</v>
       </c>
       <c r="D25">
-        <v>8.655107412985956</v>
+        <v>5.210945481068245</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.21079464135124</v>
+        <v>23.76162083617437</v>
       </c>
       <c r="G25">
-        <v>3.676464559057673</v>
+        <v>2.095829946091845</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.72569498501179</v>
+        <v>6.355235689047707</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.49683688706679</v>
+        <v>7.166298297882172</v>
       </c>
       <c r="M25">
-        <v>17.15720093650239</v>
+        <v>13.87268291217192</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.58615635312848</v>
+        <v>17.52333691538692</v>
       </c>
     </row>
   </sheetData>
